--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="78">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +268,54 @@
   <si>
     <t>detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>/mifi-uc/rest/login/registerOrLogin</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640311,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39sdefa4c777160b4b3c"}</t>
+  </si>
+  <si>
+    <t>意见反馈接口</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640312,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c772160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640313,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c771160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640314,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c772160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640315,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c773160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640316,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c774160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640317,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640318,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39sdefa4c777160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640319,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c772160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640320,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c771160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile":17091640321,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c772160b4b3c"}</t>
+  </si>
+  <si>
+    <t>{"mobile": 12234,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
   </si>
 </sst>
 </file>
@@ -333,8 +382,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -358,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -368,6 +421,8 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -377,6 +432,8 @@
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -706,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C3" sqref="A3:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -769,466 +826,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1243,15 +840,1196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H2" sqref="H2:O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -1279,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1299,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1308,7 +2086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1339,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1359,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1368,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1399,10 +2177,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1419,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1439,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1448,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -1468,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -1499,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -1519,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -1539,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -1559,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -1579,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -1599,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -1608,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -1639,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -1659,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -1668,7 +2446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -1699,252 +2477,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="151">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/mifi-uc/rest/login/registerOrLogin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,6 +312,297 @@
   </si>
   <si>
     <t>{"mobile": 12234,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+  </si>
+  <si>
+    <t>/mifi-uc/rest/login/registerOrLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640301,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17191640302,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640303,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640304,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640305,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640306,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640307,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640308,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640309,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640311,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17191640310,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640313,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640314,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640315,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640316,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640317,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640318,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640319,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17191640322,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640321,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640323,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640324,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640325,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640326,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640327,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640328,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640329,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17191640332,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640341,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640343,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640344,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640355,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640345,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 4,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640347,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640348,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640349,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640351,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17191640352,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640353,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640354,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640356,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640357,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640358,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640359,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17191640362,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640361,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640363,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640364,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640365,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640366,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640367,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640368,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640369,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17191640372,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640371,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640373,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640374,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640375,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640376,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640377,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640378,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": 17091640379,"verificationCode": 3057,"deviceid": "ee0be6bfd62a39bdefa4c777160b4b3c"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/mifi-uc/rest/login/registerOrLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/mifi-uc/rest/login/registerOrLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=256</t>
+  </si>
+  <si>
+    <t>code=257</t>
+  </si>
+  <si>
+    <t>code=258</t>
+  </si>
+  <si>
+    <t>code=259</t>
+  </si>
+  <si>
+    <t>code=260</t>
+  </si>
+  <si>
+    <t>code=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -382,8 +669,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -411,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="33">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -423,6 +720,11 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -434,6 +736,11 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="E61" activeCellId="1" sqref="E61 E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -800,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1">
@@ -811,18 +1118,1258 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20" customHeight="1">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20" customHeight="1">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20" customHeight="1">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20" customHeight="1">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20" customHeight="1">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20" customHeight="1">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20" customHeight="1">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20" customHeight="1">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20" customHeight="1">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20" customHeight="1">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20" customHeight="1">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20" customHeight="1">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20" customHeight="1">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20" customHeight="1">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20" customHeight="1">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20" customHeight="1">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20" customHeight="1">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20" customHeight="1">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20" customHeight="1">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20" customHeight="1">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20" customHeight="1">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20" customHeight="1">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20" customHeight="1">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20" customHeight="1">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20" customHeight="1">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20" customHeight="1">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20" customHeight="1">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20" customHeight="1">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20" customHeight="1">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20" customHeight="1">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20" customHeight="1">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20" customHeight="1">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20" customHeight="1">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20" customHeight="1">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20" customHeight="1">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20" customHeight="1">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" t="s">
         <v>7</v>
       </c>
     </row>
@@ -885,22 +2432,22 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -925,22 +2472,22 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -965,22 +2512,22 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1005,22 +2552,22 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1045,22 +2592,22 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1085,22 +2632,22 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1125,22 +2672,22 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1165,22 +2712,22 @@
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1205,22 +2752,22 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1245,22 +2792,22 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1285,22 +2832,22 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1325,22 +2872,22 @@
         <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1365,22 +2912,22 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1405,22 +2952,22 @@
         <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1445,22 +2992,22 @@
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1485,22 +3032,22 @@
         <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1525,22 +3072,22 @@
         <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1565,22 +3112,22 @@
         <v>7</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1605,22 +3152,22 @@
         <v>7</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1645,22 +3192,22 @@
         <v>7</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1685,22 +3232,22 @@
         <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1725,22 +3272,22 @@
         <v>7</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1765,22 +3312,22 @@
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
